--- a/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
+++ b/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="サイトA" sheetId="1" r:id="rId1"/>
-    <sheet name="サイトB" sheetId="2" r:id="rId2"/>
-    <sheet name="サイトC" sheetId="3" r:id="rId3"/>
-    <sheet name="価格コム" sheetId="4" r:id="rId4"/>
+    <sheet name="各サイトの比較 分析" sheetId="5" r:id="rId1"/>
+    <sheet name="サイトA" sheetId="1" r:id="rId2"/>
+    <sheet name="サイトB" sheetId="2" r:id="rId3"/>
+    <sheet name="サイトC" sheetId="3" r:id="rId4"/>
+    <sheet name="価格コム" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>【総論】</t>
     <rPh sb="1" eb="3">
@@ -180,6 +181,648 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ホウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード毎コンテンツ</t>
+    <rPh sb="3" eb="4">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報コンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ導線</t>
+    <rPh sb="3" eb="5">
+      <t>ドウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格コム</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財津ラボ</t>
+    <rPh sb="0" eb="2">
+      <t>ザイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合評価</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり
+カード毎にスタックして比較画面にて比較できる。</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードカテゴリ
+キャンペーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報のみで
+貧弱</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずまず。
+カードカテゴリ毎の詳細分析記事は秀逸</t>
+    <rPh sb="13" eb="14">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり
+検索機能にて結果を比較できる。</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト内ランキング
+キャンペーン</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1番得するクレジットカード比較</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットカード ランキング王国</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字が小さい
+古臭い
+青基調
+情報量みっちりの印象</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フルクサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字は小さ目
+少し古い
+青、黄色基調
+CMSの印象</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットカード選び＠おすすめランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報＋サイトからの解説（少々）
+まずまず</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字が大き目
+見やすいレイアウト
+青基調
+センスはダサメ</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充実している。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殆ど無い。
+基本的な情報が主。
+クレジットカード会社のコンテンツに似ている。</t>
+    <rPh sb="0" eb="1">
+      <t>ホトン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通。
+基本的な情報が主。
+マイレージ関連は秀逸。</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ重視
+割と貧弱</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充実している。
+データ重視だが見やすい。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格UI
+青基調
+見やすくはある</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字は小さ目
+いまどきのデザイン
+白、青基調</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション
+キャンペーン
+ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8回の基本講座は貧弱
+シミュレーション、簡単検索等は秀逸
+口コミ機能あり最強</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンジャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウイツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?
+（予想では10)</t>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?
+(予想では8)</t>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総評</t>
+    <rPh sb="0" eb="2">
+      <t>ソウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無駄の無い作りだが、価値の源泉はSEOのみか。</t>
+    <rPh sb="0" eb="2">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データのDB化と、検索性はさすがに最強。
+価格コム利用者は、これ一択だと想像される。</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンサクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMS的である点のみが売り。
+コンテンツは納得感が低い。
+殺風景。</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナットク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>サップウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無駄の無い作り、見やすいデザインは高評価。
+コンテンツの質が高い。
+メンテナンス性は悪そう。</t>
+    <rPh sb="0" eb="2">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーン
+内部コンテンツ</t>
+    <rPh sb="7" eb="9">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特集記事は切り口も内容も充実。</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEOさえ伸びれば、首位になれる存在。
+メンテナンス性はあまり良くない。</t>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,13 +867,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1633,6 +2334,25 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:K8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B3:K8"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="サイト名" dataDxfId="1"/>
+    <tableColumn id="2" name="SEO" dataDxfId="11"/>
+    <tableColumn id="3" name="売上" dataDxfId="10"/>
+    <tableColumn id="4" name="比較機能" dataDxfId="9"/>
+    <tableColumn id="10" name="デザイン" dataDxfId="2"/>
+    <tableColumn id="5" name="トップ導線" dataDxfId="8"/>
+    <tableColumn id="6" name="カード毎コンテンツ" dataDxfId="3"/>
+    <tableColumn id="7" name="情報コンテンツ" dataDxfId="7"/>
+    <tableColumn id="8" name="総合評価" dataDxfId="6"/>
+    <tableColumn id="9" name="総評" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1922,10 +2642,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1958,7 +2903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2005,7 +2950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B6"/>
   <sheetViews>
@@ -2042,11 +2987,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
+++ b/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
@@ -531,20 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ重視
-割と貧弱</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒンジャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>充実している。
 データ重視だが見やすい。</t>
     <rPh sb="0" eb="2">
@@ -823,6 +809,21 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ重視
+割と貧弱
+口コミ機能あり最強</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンジャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,10 +900,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -911,22 +912,22 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2337,18 +2338,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:K8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:K8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B3:K8"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="サイト名" dataDxfId="1"/>
-    <tableColumn id="2" name="SEO" dataDxfId="11"/>
-    <tableColumn id="3" name="売上" dataDxfId="10"/>
-    <tableColumn id="4" name="比較機能" dataDxfId="9"/>
-    <tableColumn id="10" name="デザイン" dataDxfId="2"/>
-    <tableColumn id="5" name="トップ導線" dataDxfId="8"/>
+    <tableColumn id="1" name="サイト名" dataDxfId="9"/>
+    <tableColumn id="2" name="SEO" dataDxfId="8"/>
+    <tableColumn id="3" name="売上" dataDxfId="7"/>
+    <tableColumn id="4" name="比較機能" dataDxfId="6"/>
+    <tableColumn id="10" name="デザイン" dataDxfId="5"/>
+    <tableColumn id="5" name="トップ導線" dataDxfId="4"/>
     <tableColumn id="6" name="カード毎コンテンツ" dataDxfId="3"/>
-    <tableColumn id="7" name="情報コンテンツ" dataDxfId="7"/>
-    <tableColumn id="8" name="総合評価" dataDxfId="6"/>
+    <tableColumn id="7" name="情報コンテンツ" dataDxfId="2"/>
+    <tableColumn id="8" name="総合評価" dataDxfId="1"/>
     <tableColumn id="9" name="総評" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2644,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2692,7 +2693,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="54" x14ac:dyDescent="0.15">
@@ -2724,7 +2725,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="54" x14ac:dyDescent="0.15">
@@ -2756,7 +2757,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="54" x14ac:dyDescent="0.15">
@@ -2788,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2799,28 +2800,28 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2831,28 +2832,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
+++ b/RANK_CMS(CO_201205--)/00_企画/参考サイト分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>【総論】</t>
     <rPh sb="1" eb="3">
@@ -420,10 +420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クレジットカード選び＠おすすめランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本情報＋サイトからの解説（少々）
 まずまず</t>
     <rPh sb="0" eb="2">
@@ -593,45 +589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8回の基本講座は貧弱
-シミュレーション、簡単検索等は秀逸
-口コミ機能あり最強</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒンジャク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュウイツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?
 （予想では10)</t>
     <rPh sb="3" eb="5">
@@ -670,32 +627,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ゲンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データのDB化と、検索性はさすがに最強。
-価格コム利用者は、これ一択だと想像される。</t>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケンサクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイキョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イッタク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,6 +755,82 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットカード選び＠おすすめランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8回の基本講座は貧弱
+シミュレーション、簡単検索等は秀逸</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンジャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データのDB化と、検索性はさすがに最強。
+そして、ポイントの比較が交換商品との掛け算まで選べる。異常。
+ポイントガジリには福音。</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンサクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>フクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2645,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2693,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="54" x14ac:dyDescent="0.15">
@@ -2725,7 +2732,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="54" x14ac:dyDescent="0.15">
@@ -2748,21 +2755,21 @@
         <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -2771,28 +2778,28 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -2800,28 +2807,28 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2832,28 +2839,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
